--- a/TP2/GráficosPolinomios.xlsx
+++ b/TP2/GráficosPolinomios.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flopez\PrograAvanzadaClaseTp\TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\Desktop\ProgramacionAvanzada\PrograAvanzadaClaseTp\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="14120" windowHeight="5190"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="5190"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -562,7 +562,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>70746</c:v>
+                  <c:v>63293</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>68923</c:v>
@@ -726,7 +726,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -752,7 +751,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -790,7 +789,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="845111136"/>
@@ -852,7 +851,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -878,7 +876,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -910,7 +908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="845125696"/>
@@ -951,7 +949,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1535,7 +1533,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1554,7 +1558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1629,6 +1633,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1664,6 +1685,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1842,13 +1880,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1908,7 @@
       </c>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1925,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>70746</v>
+        <v>63293</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1934,7 +1972,7 @@
         <v>25527</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>10</v>
       </c>
@@ -1966,7 +2004,7 @@
         <v>23339</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>50</v>
       </c>
@@ -1998,7 +2036,7 @@
         <v>24069</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>100</v>
       </c>
@@ -2030,7 +2068,7 @@
         <v>26986</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>150</v>
       </c>
@@ -2062,7 +2100,7 @@
         <v>28963</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>300</v>
       </c>
@@ -2106,7 +2144,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2118,7 +2156,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TP2/GráficosPolinomios.xlsx
+++ b/TP2/GráficosPolinomios.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flopez\PrograAvanzadaClaseTp\TP2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="5190"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="14120" windowHeight="5190"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,12 +26,6 @@
     <t>MSUCESIVAS</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recursiva </t>
   </si>
   <si>
@@ -38,11 +37,17 @@
   <si>
     <t>ProgDinamica</t>
   </si>
+  <si>
+    <t>Grado</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -182,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,14 +198,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -210,200 +219,375 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Msucesivas</c:v>
+            <c:v>MSucesivas</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$12</c:f>
+              <c:f>Hoja1!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3547</c:v>
+                  <c:v>20421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1576</c:v>
+                  <c:v>25892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>788</c:v>
+                  <c:v>51419</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1182</c:v>
+                  <c:v>162925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1183</c:v>
+                  <c:v>205310</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1576</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2364</c:v>
+                  <c:v>720956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CD1-40CA-B574-A04E6990E565}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Recursiva </c:v>
+            <c:v>Recursiva</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$12</c:f>
+              <c:f>Hoja1!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5124</c:v>
+                  <c:v>18233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1576</c:v>
+                  <c:v>19327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1576</c:v>
+                  <c:v>45584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1576</c:v>
+                  <c:v>151339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1971</c:v>
+                  <c:v>167059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2365</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2364</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2758</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3547</c:v>
+                  <c:v>180512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7CD1-40CA-B574-A04E6990E565}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>RecursivaPar </c:v>
+            <c:v>RecursivaPar</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$3:$F$12</c:f>
+              <c:f>Hoja1!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3941</c:v>
+                  <c:v>16775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1576</c:v>
+                  <c:v>24069</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1576</c:v>
+                  <c:v>75487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1970</c:v>
+                  <c:v>277879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2365</c:v>
+                  <c:v>416455</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2365</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2758</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3153</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3547</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3941</c:v>
+                  <c:v>777845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7CD1-40CA-B574-A04E6990E565}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Mejorada </c:v>
+            <c:v>Mejorada</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$3:$H$12</c:f>
+              <c:f>Hoja1!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33498</c:v>
+                  <c:v>70746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3152</c:v>
+                  <c:v>68923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3941</c:v>
+                  <c:v>66735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5124</c:v>
+                  <c:v>129094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5912</c:v>
+                  <c:v>153999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7093</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7882</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10246</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11428</c:v>
+                  <c:v>130188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7CD1-40CA-B574-A04E6990E565}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -411,46 +595,90 @@
           <c:tx>
             <c:v>ProgDinamica</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$3:$J$12</c:f>
+              <c:f>Hoja1!$J$3:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3547</c:v>
+                  <c:v>25527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>788</c:v>
+                  <c:v>23339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>788</c:v>
+                  <c:v>24069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>788</c:v>
+                  <c:v>26986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>788</c:v>
+                  <c:v>28963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1183</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>788</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>788</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1183</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>788</c:v>
+                  <c:v>29527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7CD1-40CA-B574-A04E6990E565}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -460,21 +688,112 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="79390592"/>
-        <c:axId val="79392128"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="845125696"/>
+        <c:axId val="845111136"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="79390592"/>
+        <c:axId val="845125696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Grado</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79392128"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845111136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -482,31 +801,159 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79392128"/>
+        <c:axId val="845111136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79390592"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845125696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -515,24 +962,580 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>93381</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="9" name="Gráfico 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -593,7 +1596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,7 +1631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,386 +1840,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>3547</v>
+        <v>20421</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>5124</v>
+        <v>18233</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>3941</v>
+        <v>16775</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>33498</v>
+        <v>70746</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>3547</v>
+        <v>25527</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>10</v>
       </c>
       <c r="B4" s="4">
-        <v>1576</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
+        <v>25892</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10</v>
       </c>
       <c r="D4" s="4">
-        <v>1576</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
+        <v>19327</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10</v>
       </c>
       <c r="F4" s="4">
-        <v>1576</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
+        <v>24069</v>
+      </c>
+      <c r="G4" s="10">
+        <v>10</v>
       </c>
       <c r="H4" s="4">
-        <v>3152</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2</v>
+        <v>68923</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10</v>
       </c>
       <c r="J4" s="4">
-        <v>788</v>
+        <v>23339</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4">
-        <v>788</v>
+        <v>51419</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4">
-        <v>1576</v>
+        <v>45584</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4">
-        <v>1576</v>
+        <v>75487</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H5" s="4">
-        <v>3941</v>
+        <v>66735</v>
       </c>
       <c r="I5" s="3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J5" s="4">
-        <v>788</v>
+        <v>24069</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4">
-        <v>1182</v>
+        <v>162925</v>
       </c>
       <c r="C6" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4">
-        <v>1576</v>
+        <v>151339</v>
       </c>
       <c r="E6" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4">
-        <v>1970</v>
+        <v>277879</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H6" s="4">
-        <v>5124</v>
+        <v>129094</v>
       </c>
       <c r="I6" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="J6" s="4">
-        <v>788</v>
+        <v>26986</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="B7" s="4">
-        <v>1183</v>
+        <v>205310</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="D7" s="4">
-        <v>1971</v>
+        <v>167059</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="F7" s="4">
-        <v>2365</v>
+        <v>416455</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="H7" s="4">
-        <v>5912</v>
+        <v>153999</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="J7" s="4">
-        <v>788</v>
+        <v>28963</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1576</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2365</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2365</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4">
-        <v>7093</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1971</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2364</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2758</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7</v>
-      </c>
-      <c r="H9" s="4">
-        <v>7882</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7</v>
-      </c>
-      <c r="J9" s="4">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1971</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2758</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3153</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4">
-        <v>9064</v>
-      </c>
-      <c r="I10" s="3">
-        <v>8</v>
-      </c>
-      <c r="J10" s="4">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1970</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3153</v>
-      </c>
-      <c r="E11" s="3">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3547</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9</v>
-      </c>
-      <c r="H11" s="4">
-        <v>10246</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2364</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3547</v>
-      </c>
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3941</v>
-      </c>
-      <c r="G12" s="5">
-        <v>10</v>
-      </c>
-      <c r="H12" s="6">
-        <v>11428</v>
-      </c>
-      <c r="I12" s="5">
-        <v>10</v>
-      </c>
-      <c r="J12" s="6">
-        <v>788</v>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>300</v>
+      </c>
+      <c r="B8" s="6">
+        <v>720956</v>
+      </c>
+      <c r="C8" s="5">
+        <v>300</v>
+      </c>
+      <c r="D8" s="6">
+        <v>180512</v>
+      </c>
+      <c r="E8" s="5">
+        <v>300</v>
+      </c>
+      <c r="F8" s="6">
+        <v>777845</v>
+      </c>
+      <c r="G8" s="5">
+        <v>300</v>
+      </c>
+      <c r="H8" s="6">
+        <v>130188</v>
+      </c>
+      <c r="I8" s="5">
+        <v>300</v>
+      </c>
+      <c r="J8" s="6">
+        <v>29527</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +2106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1243,7 +2118,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TP2/GráficosPolinomios.xlsx
+++ b/TP2/GráficosPolinomios.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\Desktop\ProgramacionAvanzada\PrograAvanzadaClaseTp\TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorios\Desktop\Ejecuciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -78,17 +78,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -176,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -186,8 +175,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,7 +198,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -257,26 +247,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:f>Hoja1!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -284,27 +271,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$8</c:f>
+              <c:f>Hoja1!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20421</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25892</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51419</c:v>
+                  <c:v>4276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>162925</c:v>
+                  <c:v>4277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205310</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720956</c:v>
+                  <c:v>4705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,26 +332,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:f>Hoja1!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -375,27 +356,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$8</c:f>
+              <c:f>Hoja1!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18233</c:v>
+                  <c:v>4276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19327</c:v>
+                  <c:v>5132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45584</c:v>
+                  <c:v>5560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151339</c:v>
+                  <c:v>5559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>167059</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180512</c:v>
+                  <c:v>6414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,26 +417,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:f>Hoja1!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -466,28 +441,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$3:$F$8</c:f>
+              <c:f>Hoja1!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>16775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24069</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75487</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>277879</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>416455</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>777845</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -530,26 +487,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:f>Hoja1!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -557,28 +511,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$3:$H$8</c:f>
+              <c:f>Hoja1!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>63293</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>68923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66735</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>129094</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>153999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>130188</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -621,26 +557,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:f>Hoja1!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -648,28 +581,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$3:$J$8</c:f>
+              <c:f>Hoja1!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>25527</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23339</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26986</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28963</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29527</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -726,6 +641,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -851,6 +767,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1521,15 +1438,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>93381</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96369</xdr:rowOff>
+      <xdr:colOff>226731</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1558,7 +1475,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1633,23 +1550,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1685,23 +1585,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1878,258 +1761,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20421</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>18233</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>16775</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>63293</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>25527</v>
-      </c>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3849</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4276</v>
+      </c>
+      <c r="E3" s="9">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>25892</v>
-      </c>
-      <c r="C4" s="10">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>19327</v>
-      </c>
-      <c r="E4" s="10">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>24069</v>
-      </c>
-      <c r="G4" s="10">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>68923</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4">
-        <v>23339</v>
-      </c>
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3849</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5132</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>50</v>
-      </c>
-      <c r="B5" s="4">
-        <v>51419</v>
-      </c>
-      <c r="C5" s="3">
-        <v>50</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45584</v>
-      </c>
-      <c r="E5" s="3">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4">
-        <v>75487</v>
-      </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="4">
-        <v>66735</v>
-      </c>
-      <c r="I5" s="3">
-        <v>50</v>
-      </c>
-      <c r="J5" s="4">
-        <v>24069</v>
-      </c>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4276</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5560</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>100</v>
-      </c>
-      <c r="B6" s="4">
-        <v>162925</v>
-      </c>
-      <c r="C6" s="3">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4">
-        <v>151339</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100</v>
-      </c>
-      <c r="F6" s="4">
-        <v>277879</v>
-      </c>
-      <c r="G6" s="3">
-        <v>100</v>
-      </c>
-      <c r="H6" s="4">
-        <v>129094</v>
-      </c>
-      <c r="I6" s="3">
-        <v>100</v>
-      </c>
-      <c r="J6" s="4">
-        <v>26986</v>
-      </c>
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4277</v>
+      </c>
+      <c r="C6" s="2">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5559</v>
+      </c>
+      <c r="E6" s="2">
+        <v>150</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2">
+        <v>150</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2">
+        <v>150</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>150</v>
-      </c>
-      <c r="B7" s="4">
-        <v>205310</v>
-      </c>
-      <c r="C7" s="3">
-        <v>150</v>
-      </c>
-      <c r="D7" s="4">
-        <v>167059</v>
-      </c>
-      <c r="E7" s="3">
-        <v>150</v>
-      </c>
-      <c r="F7" s="4">
-        <v>416455</v>
-      </c>
-      <c r="G7" s="3">
-        <v>150</v>
-      </c>
-      <c r="H7" s="4">
-        <v>153999</v>
-      </c>
-      <c r="I7" s="3">
-        <v>150</v>
-      </c>
-      <c r="J7" s="4">
-        <v>28963</v>
-      </c>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4705</v>
+      </c>
+      <c r="C7" s="4">
+        <v>300</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6414</v>
+      </c>
+      <c r="E7" s="4">
+        <v>300</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4">
+        <v>300</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4">
+        <v>300</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>300</v>
-      </c>
-      <c r="B8" s="6">
-        <v>720956</v>
-      </c>
-      <c r="C8" s="5">
-        <v>300</v>
-      </c>
-      <c r="D8" s="6">
-        <v>180512</v>
-      </c>
-      <c r="E8" s="5">
-        <v>300</v>
-      </c>
-      <c r="F8" s="6">
-        <v>777845</v>
-      </c>
-      <c r="G8" s="5">
-        <v>300</v>
-      </c>
-      <c r="H8" s="6">
-        <v>130188</v>
-      </c>
-      <c r="I8" s="5">
-        <v>300</v>
-      </c>
-      <c r="J8" s="6">
-        <v>29527</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4704</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>5987</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9">
+        <v>9</v>
+      </c>
+      <c r="I9" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>6415</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>14112</v>
+      </c>
+      <c r="C11" s="10">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10">
+        <v>20</v>
+      </c>
+      <c r="I11" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>29081</v>
+      </c>
+      <c r="C12" s="10">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10">
+        <v>30</v>
+      </c>
+      <c r="G12" s="10">
+        <v>30</v>
+      </c>
+      <c r="I12" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>56878</v>
+      </c>
+      <c r="C13" s="10">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10">
+        <v>40</v>
+      </c>
+      <c r="G13" s="10">
+        <v>40</v>
+      </c>
+      <c r="I13" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>128724</v>
+      </c>
+      <c r="C14" s="10">
+        <v>50</v>
+      </c>
+      <c r="E14" s="10">
+        <v>50</v>
+      </c>
+      <c r="G14" s="10">
+        <v>50</v>
+      </c>
+      <c r="I14" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>94512</v>
+      </c>
+      <c r="C15" s="10">
+        <v>60</v>
+      </c>
+      <c r="E15" s="10">
+        <v>60</v>
+      </c>
+      <c r="G15" s="10">
+        <v>60</v>
+      </c>
+      <c r="I15" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>132145</v>
+      </c>
+      <c r="C16" s="10">
+        <v>70</v>
+      </c>
+      <c r="E16" s="10">
+        <v>70</v>
+      </c>
+      <c r="G16" s="10">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>159088</v>
+      </c>
+      <c r="C17" s="10">
+        <v>80</v>
+      </c>
+      <c r="E17" s="10">
+        <v>80</v>
+      </c>
+      <c r="G17" s="10">
+        <v>80</v>
+      </c>
+      <c r="I17" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>211262</v>
+      </c>
+      <c r="C18" s="10">
+        <v>90</v>
+      </c>
+      <c r="E18" s="10">
+        <v>90</v>
+      </c>
+      <c r="G18" s="10">
+        <v>90</v>
+      </c>
+      <c r="I18" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>977192</v>
+      </c>
+      <c r="C19" s="10">
+        <v>200</v>
+      </c>
+      <c r="E19" s="10">
+        <v>200</v>
+      </c>
+      <c r="G19" s="10">
+        <v>200</v>
+      </c>
+      <c r="I19" s="10">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2205,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2156,7 +2217,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TP2/GráficosPolinomios.xlsx
+++ b/TP2/GráficosPolinomios.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorios\Desktop\Ejecuciones\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="5190"/>
   </bookViews>
@@ -21,18 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
-  <si>
-    <t>MSUCESIVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursiva </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t xml:space="preserve">RecursivaPar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mejorada </t>
   </si>
   <si>
     <t>ProgDinamica</t>
@@ -43,12 +29,27 @@
   <si>
     <t>Tiempo</t>
   </si>
+  <si>
+    <t xml:space="preserve">Recursiva             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejorada              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pow                      </t>
+  </si>
+  <si>
+    <t>Msucesivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horner                  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,16 +57,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -74,10 +101,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -88,59 +145,135 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -149,11 +282,48 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -162,24 +332,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="60% - Énfasis1" xfId="2" builtinId="32"/>
+    <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -196,9 +389,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-AR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -219,7 +412,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MSucesivas</c:v>
+            <c:strRef>
+              <c:f>Hoja1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Msucesivas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -247,34 +448,70 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$7</c:f>
+              <c:f>Hoja1!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$7</c:f>
+              <c:f>Hoja1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3849</c:v>
                 </c:pt>
@@ -289,12 +526,48 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29081</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128724</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159088</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>211262</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>977192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7CD1-40CA-B574-A04E6990E565}"/>
             </c:ext>
@@ -304,62 +577,22 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Recursiva</c:v>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recursiva             </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$7</c:f>
+              <c:f>Hoja1!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$3:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>4276</c:v>
                 </c:pt>
@@ -374,226 +607,351 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27370</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41055</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26087</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7CD1-40CA-B574-A04E6990E565}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>RecursivaPar</c:v>
+            <c:strRef>
+              <c:f>Hoja1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RecursivaPar </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$7</c:f>
+              <c:f>Hoja1!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>4704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>5559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>6843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>9409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$F$3:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                  <c:v>6843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34212</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>143692</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7CD1-40CA-B574-A04E6990E565}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Mejorada</c:v>
+            <c:strRef>
+              <c:f>Hoja1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mejorada              </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$7</c:f>
+              <c:f>Hoja1!$H$3:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>2566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>2566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>2138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$3:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7270</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8126</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14113</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-7CD1-40CA-B574-A04E6990E565}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>ProgDinamica</c:v>
+            <c:strRef>
+              <c:f>Hoja1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProgDinamica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$3:$E$7</c:f>
+              <c:f>Hoja1!$J$3:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>6842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>6415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>5559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>5987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$J$3:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                  <c:v>5987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31219</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24376</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54740</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39772</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-7CD1-40CA-B574-A04E6990E565}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pow                      </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$3:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25660</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>181326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>176621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>198860</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>497363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -605,11 +963,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="845125696"/>
-        <c:axId val="845111136"/>
+        <c:axId val="80630912"/>
+        <c:axId val="80632832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="845125696"/>
+        <c:axId val="80630912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,26 +1008,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -708,7 +1046,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845111136"/>
+        <c:crossAx val="80632832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="845111136"/>
+        <c:axId val="80632832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,26 +1114,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -828,7 +1146,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845125696"/>
+        <c:crossAx val="80630912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -840,6 +1158,11 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1437,23 +1760,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>226731</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>58269</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97464</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273958</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>91167</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1552,7 +1875,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1761,436 +2084,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="6" t="s">
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3849</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13">
+        <v>4276</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4704</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2565</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6842</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10692</v>
+      </c>
+      <c r="M3" s="8">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="B4" s="4">
+        <v>3849</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14">
+        <v>5132</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5559</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2566</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6415</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4">
+        <v>13257</v>
+      </c>
+      <c r="M4" s="9">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4">
+        <v>567</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B5" s="4">
+        <v>4276</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15">
+        <v>5560</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6843</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="14">
+        <v>2566</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5559</v>
+      </c>
+      <c r="K5" s="9">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>15395</v>
+      </c>
+      <c r="M5" s="9">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B6" s="4">
+        <v>4277</v>
+      </c>
+      <c r="C6" s="9">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D6" s="14">
+        <v>5559</v>
+      </c>
+      <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="F6" s="4">
+        <v>9409</v>
+      </c>
+      <c r="G6" s="9">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="H6" s="14">
+        <v>2138</v>
+      </c>
+      <c r="I6" s="3">
         <v>6</v>
       </c>
+      <c r="J6" s="4">
+        <v>5987</v>
+      </c>
+      <c r="K6" s="9">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4">
+        <v>17534</v>
+      </c>
+      <c r="M6" s="9">
+        <v>6</v>
+      </c>
+      <c r="N6" s="4">
+        <v>850</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3849</v>
-      </c>
-      <c r="C3" s="9">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4276</v>
-      </c>
-      <c r="E3" s="9">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="9">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="9">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4705</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14">
+        <v>6414</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6843</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2138</v>
+      </c>
+      <c r="I7" s="3">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5987</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4">
+        <v>19244</v>
+      </c>
+      <c r="M7" s="9">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <v>851</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3849</v>
-      </c>
-      <c r="C4" s="2">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5132</v>
-      </c>
-      <c r="E4" s="2">
-        <v>50</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2">
-        <v>50</v>
-      </c>
-      <c r="J4" s="3"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4704</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14">
+        <v>36778</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9409</v>
+      </c>
+      <c r="G8" s="9">
+        <v>8</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2565</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4">
+        <v>7270</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4">
+        <v>22666</v>
+      </c>
+      <c r="M8" s="9">
+        <v>8</v>
+      </c>
+      <c r="N8" s="4">
+        <v>851</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4276</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="10">
-        <v>5560</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2">
-        <v>100</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2">
-        <v>100</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4277</v>
-      </c>
-      <c r="C6" s="2">
-        <v>150</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5559</v>
-      </c>
-      <c r="E6" s="2">
-        <v>150</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2">
-        <v>150</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2">
-        <v>150</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
-        <v>4705</v>
-      </c>
-      <c r="C7" s="4">
-        <v>300</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6414</v>
-      </c>
-      <c r="E7" s="4">
-        <v>300</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4">
-        <v>300</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4">
-        <v>300</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="11">
-        <v>4704</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>5987</v>
       </c>
       <c r="C9" s="9">
         <v>9</v>
       </c>
-      <c r="E9" s="9">
+      <c r="D9" s="14">
+        <v>9837</v>
+      </c>
+      <c r="E9" s="3">
         <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9408</v>
       </c>
       <c r="G9" s="9">
         <v>9</v>
       </c>
-      <c r="I9" s="9">
+      <c r="H9" s="14">
+        <v>2566</v>
+      </c>
+      <c r="I9" s="3">
         <v>9</v>
       </c>
+      <c r="J9" s="4">
+        <v>6415</v>
+      </c>
+      <c r="K9" s="9">
+        <v>9</v>
+      </c>
+      <c r="L9" s="4">
+        <v>25660</v>
+      </c>
+      <c r="M9" s="9">
+        <v>9</v>
+      </c>
+      <c r="N9" s="4">
+        <v>850</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>6415</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
       </c>
-      <c r="E10" s="10">
+      <c r="D10" s="14">
+        <v>27370</v>
+      </c>
+      <c r="E10" s="5">
         <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8125</v>
       </c>
       <c r="G10" s="10">
         <v>10</v>
       </c>
-      <c r="I10" s="10">
+      <c r="H10" s="14">
+        <v>3849</v>
+      </c>
+      <c r="I10" s="5">
         <v>10</v>
       </c>
+      <c r="J10" s="4">
+        <v>14968</v>
+      </c>
+      <c r="K10" s="10">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4">
+        <v>67142</v>
+      </c>
+      <c r="M10" s="10">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1134</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>14112</v>
       </c>
       <c r="C11" s="10">
         <v>20</v>
       </c>
-      <c r="E11" s="10">
+      <c r="D11" s="14">
+        <v>8553</v>
+      </c>
+      <c r="E11" s="5">
         <v>20</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10264</v>
       </c>
       <c r="G11" s="10">
         <v>20</v>
       </c>
-      <c r="I11" s="10">
+      <c r="H11" s="14">
+        <v>2993</v>
+      </c>
+      <c r="I11" s="5">
         <v>20</v>
       </c>
+      <c r="J11" s="4">
+        <v>9409</v>
+      </c>
+      <c r="K11" s="10">
+        <v>20</v>
+      </c>
+      <c r="L11" s="4">
+        <v>51746</v>
+      </c>
+      <c r="M11" s="10">
+        <v>20</v>
+      </c>
+      <c r="N11" s="4">
+        <v>850</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>29081</v>
       </c>
       <c r="C12" s="10">
         <v>30</v>
       </c>
-      <c r="E12" s="10">
+      <c r="D12" s="14">
+        <v>20527</v>
+      </c>
+      <c r="E12" s="5">
         <v>30</v>
+      </c>
+      <c r="F12" s="4">
+        <v>17962</v>
       </c>
       <c r="G12" s="10">
         <v>30</v>
       </c>
-      <c r="I12" s="10">
+      <c r="H12" s="14">
+        <v>4276</v>
+      </c>
+      <c r="I12" s="5">
         <v>30</v>
       </c>
+      <c r="J12" s="4">
+        <v>76194</v>
+      </c>
+      <c r="K12" s="10">
+        <v>30</v>
+      </c>
+      <c r="L12" s="4">
+        <v>81254</v>
+      </c>
+      <c r="M12" s="10">
+        <v>30</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1134</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>40</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>56878</v>
       </c>
       <c r="C13" s="10">
         <v>40</v>
       </c>
-      <c r="E13" s="10">
+      <c r="D13" s="14">
+        <v>22666</v>
+      </c>
+      <c r="E13" s="5">
         <v>40</v>
+      </c>
+      <c r="F13" s="4">
+        <v>23949</v>
       </c>
       <c r="G13" s="10">
         <v>40</v>
       </c>
-      <c r="I13" s="10">
+      <c r="H13" s="14">
+        <v>5987</v>
+      </c>
+      <c r="I13" s="5">
         <v>40</v>
       </c>
+      <c r="J13" s="4">
+        <v>31219</v>
+      </c>
+      <c r="K13" s="10">
+        <v>40</v>
+      </c>
+      <c r="L13" s="4">
+        <v>113756</v>
+      </c>
+      <c r="M13" s="10">
+        <v>40</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1701</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>50</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>128724</v>
       </c>
       <c r="C14" s="10">
         <v>50</v>
       </c>
-      <c r="E14" s="10">
+      <c r="D14" s="14">
+        <v>37206</v>
+      </c>
+      <c r="E14" s="5">
         <v>50</v>
+      </c>
+      <c r="F14" s="4">
+        <v>99715</v>
       </c>
       <c r="G14" s="10">
         <v>50</v>
       </c>
-      <c r="I14" s="10">
+      <c r="H14" s="14">
+        <v>6415</v>
+      </c>
+      <c r="I14" s="5">
         <v>50</v>
       </c>
+      <c r="J14" s="4">
+        <v>19672</v>
+      </c>
+      <c r="K14" s="10">
+        <v>50</v>
+      </c>
+      <c r="L14" s="4">
+        <v>181326</v>
+      </c>
+      <c r="M14" s="10">
+        <v>50</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1701</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>60</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>94512</v>
       </c>
       <c r="C15" s="10">
         <v>60</v>
       </c>
-      <c r="E15" s="10">
+      <c r="D15" s="14">
+        <v>41055</v>
+      </c>
+      <c r="E15" s="5">
         <v>60</v>
+      </c>
+      <c r="F15" s="4">
+        <v>25659</v>
       </c>
       <c r="G15" s="10">
         <v>60</v>
       </c>
-      <c r="I15" s="10">
+      <c r="H15" s="14">
+        <v>6415</v>
+      </c>
+      <c r="I15" s="5">
         <v>60</v>
       </c>
+      <c r="J15" s="4">
+        <v>17961</v>
+      </c>
+      <c r="K15" s="10">
+        <v>60</v>
+      </c>
+      <c r="L15" s="4">
+        <v>147113</v>
+      </c>
+      <c r="M15" s="10">
+        <v>60</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1984</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>70</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>132145</v>
       </c>
       <c r="C16" s="10">
         <v>70</v>
       </c>
-      <c r="E16" s="10">
+      <c r="D16" s="14">
+        <v>26087</v>
+      </c>
+      <c r="E16" s="5">
         <v>70</v>
+      </c>
+      <c r="F16" s="4">
+        <v>29936</v>
       </c>
       <c r="G16" s="10">
         <v>70</v>
       </c>
-      <c r="I16" s="10">
+      <c r="H16" s="14">
+        <v>5988</v>
+      </c>
+      <c r="I16" s="5">
         <v>70</v>
       </c>
+      <c r="J16" s="4">
+        <v>24376</v>
+      </c>
+      <c r="K16" s="10">
+        <v>70</v>
+      </c>
+      <c r="L16" s="4">
+        <v>176621</v>
+      </c>
+      <c r="M16" s="10">
+        <v>70</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2268</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>80</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>159088</v>
       </c>
       <c r="C17" s="10">
         <v>80</v>
       </c>
-      <c r="E17" s="10">
+      <c r="D17" s="14">
+        <v>32502</v>
+      </c>
+      <c r="E17" s="5">
         <v>80</v>
+      </c>
+      <c r="F17" s="4">
+        <v>34212</v>
       </c>
       <c r="G17" s="10">
         <v>80</v>
       </c>
-      <c r="I17" s="10">
+      <c r="H17" s="14">
+        <v>7270</v>
+      </c>
+      <c r="I17" s="5">
         <v>80</v>
       </c>
+      <c r="J17" s="4">
+        <v>54740</v>
+      </c>
+      <c r="K17" s="10">
+        <v>80</v>
+      </c>
+      <c r="L17" s="4">
+        <v>198860</v>
+      </c>
+      <c r="M17" s="10">
+        <v>80</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2268</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>90</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>211262</v>
       </c>
       <c r="C18" s="10">
         <v>90</v>
       </c>
-      <c r="E18" s="10">
+      <c r="D18" s="14">
+        <v>40199</v>
+      </c>
+      <c r="E18" s="5">
         <v>90</v>
+      </c>
+      <c r="F18" s="4">
+        <v>42338</v>
       </c>
       <c r="G18" s="10">
         <v>90</v>
       </c>
-      <c r="I18" s="10">
+      <c r="H18" s="14">
+        <v>8126</v>
+      </c>
+      <c r="I18" s="5">
         <v>90</v>
       </c>
+      <c r="J18" s="4">
+        <v>26087</v>
+      </c>
+      <c r="K18" s="10">
+        <v>90</v>
+      </c>
+      <c r="L18" s="4">
+        <v>235210</v>
+      </c>
+      <c r="M18" s="10">
+        <v>90</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2268</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>200</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>977192</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="11">
         <v>200</v>
       </c>
-      <c r="E19" s="10">
+      <c r="D19" s="16">
+        <v>162082</v>
+      </c>
+      <c r="E19" s="6">
         <v>200</v>
       </c>
-      <c r="G19" s="10">
+      <c r="F19" s="7">
+        <v>143692</v>
+      </c>
+      <c r="G19" s="11">
         <v>200</v>
       </c>
-      <c r="I19" s="10">
+      <c r="H19" s="17">
+        <v>14113</v>
+      </c>
+      <c r="I19" s="6">
         <v>200</v>
+      </c>
+      <c r="J19" s="7">
+        <v>39772</v>
+      </c>
+      <c r="K19" s="11">
+        <v>200</v>
+      </c>
+      <c r="L19" s="7">
+        <v>497363</v>
+      </c>
+      <c r="M19" s="11">
+        <v>200</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4536</v>
       </c>
     </row>
   </sheetData>
